--- a/core/stream_guild.xlsx
+++ b/core/stream_guild.xlsx
@@ -1,224 +1,187 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12630" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12630" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="609400404223983664" sheetId="1" r:id="rId1"/>
-    <sheet name="609400404223983664_youtube" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="609400404223983664" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="609400404223983664_youtube" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1076954067823251617" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1076954067823251617_youtube" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1000585847873220739" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1000585847873220739_youtube" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="987051677045624912" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="987051677045624912_youtube" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
-  <si>
-    <t>1141074520803921970</t>
-  </si>
-  <si>
-    <t>loeya</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>ay 7aga</t>
-  </si>
-  <si>
-    <t>kyoharo</t>
-  </si>
-  <si>
-    <t>&lt;@572012990552080395&gt;</t>
-  </si>
-  <si>
-    <t>taylor_jevaux</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>&lt;@1073184137554436137&gt;</t>
-  </si>
-  <si>
-    <t>Void-Ember</t>
-  </si>
-  <si>
-    <t>UCgH-KXwwidGHT_7uPXS_zmQ</t>
-  </si>
-  <si>
-    <t>f2-Ts1VX8IQ,d_nr5fnpyDQ,LSO43KRT2ls,FKH2QgzYeRo</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -410,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -531,162 +494,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -742,11 +722,74 @@
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1035,111 +1078,559 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E40" sqref="E40:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
-    <col min="4" max="4" width="7.33333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6666666666667" style="1" customWidth="1"/>
+    <col width="7.33333333333333" customWidth="1" style="1" min="4" max="4"/>
+    <col width="25.6666666666667" customWidth="1" style="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>1141074520803921970</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>loeya</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>ay 7aga</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>kyoharo</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>&lt;@572012990552080395&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>taylor_jevaux</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>ay 7aga</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>kyoharo</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>&lt;@1073184137554436137&gt;</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G10" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="26.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27" style="1" customWidth="1"/>
-    <col min="7" max="7" width="107.111111111111" style="1" customWidth="1"/>
+    <col width="15.7777777777778" customWidth="1" style="1" min="1" max="1"/>
+    <col width="26.4444444444444" customWidth="1" style="1" min="2" max="2"/>
+    <col width="21.3333333333333" customWidth="1" style="1" min="3" max="3"/>
+    <col width="7.33333333333333" customWidth="1" style="1" min="5" max="5"/>
+    <col width="27" customWidth="1" style="1" min="6" max="6"/>
+    <col width="107.111111111111" customWidth="1" style="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1"/>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>1141074520803921970</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Durrah1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>UCLWuczgyV8OKhH6UWgSXM3g</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>None,LIMb6QxLdmc,iBKNd5E14ck</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>ay 7aga</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>kyoharo</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>&lt;@572012990552080395&gt;</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>ga2BNK30Pv0,Hh-Gny6H8fw,Sw3HToXF2uc,4-nLzR9GVu0,ZJAs69NY__k,61pCygus9Ok,D7aLMfQwqCY,-jZW07fxQBs,ovkJ7l7dCKI</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>ChibeeTV</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>UCYJm213fMy_D8MPh-vKpIaA</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>None,A0i22x7WWrw</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>ay 7aga</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>kyoharo</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>A0i22x7WWrw,s-Jwlq3Tlko,QSpNQAO0xGg,jn4M9kbCP-c,BLlKCwXrDJQ,SkOC9M1gSzA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>AIKAS4N</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>UCRYPUmkB2s3Zupe7DOBojHw</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>None,aM2fHzNskFY</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>ay 7aga</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>kyoharo</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Y1KmydjACss,4_0MaPX4PlM,A96vtD73zuE,aM2fHzNskFY,yfmRPF2-g2s,DB2D0niOYaY</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>othmanalkamees</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>UCWjCSGhmSGu0VLf2mPFS0Kg</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>None,kLYOmpR-WTs</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>ay 7aga</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>kyoharo</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>&lt;@572012990552080395&gt;</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>mvLCbwzf7Fw,SizDUmbnWNk,XA8SQ49eULc,2fbuxe_K0NI,OJMHrnZUMTE,wjCANhQFs2k,J8dvBe4rGz0,jcynQNgVGlA,T-gfBgxFZX8,GraWAA-5lGA,7tmWUCDgEJk,XU46ItenHuI</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="C1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>1076954068855042120</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="C1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>1076954068855042120</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="C1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>1123437137208037427</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>1123437137208037427</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>emad</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>UC-lTHABVJunB7PhY3BwHLKA</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>None,pZwZ-IjD1rY,nHIZ6cctKic</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Schrender</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>emadzahran</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>5GCXbfmfL-s,nHIZ6cctKic,BmhgLHAj2OQ,BlL1Pnpu9ac,50Nd02Og8jQ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="C1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>1079836876506153093</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>1079836876506153093</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Nao0vt</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>UC5V9nA6nw8mDhbyf1EKDvfA</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>None,NXCnOMOs_Bg</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>W45</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>kyoharo</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>&lt;@572012990552080395&gt;</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>vppYemSrDfk,iQ5u1GMOGc8,5MMWKgVbEgk,3Q2LZ-YJhp0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Void-Ember</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>UCgH-KXwwidGHT_7uPXS_zmQ</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>None,maeIMH_UFkE</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>W45</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>kyoharo</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>&lt;@572012990552080395&gt;</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>FKH2QgzYeRo,f2-Ts1VX8IQ,d_nr5fnpyDQ,LSO43KRT2ls,ZIZbaMm7XTY</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>ChibeeTV</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>UCYJm213fMy_D8MPh-vKpIaA</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>None,A0i22x7WWrw</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>W45</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>kyoharo</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>&lt;@572012990552080395&gt;</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>A0i22x7WWrw,s-Jwlq3Tlko,QSpNQAO0xGg,jn4M9kbCP-c,BLlKCwXrDJQ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/core/stream_guild.xlsx
+++ b/core/stream_guild.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12630" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="609400404223983664" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="609400404223983664_youtube" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1076954067823251617" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1076954067823251617_youtube" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1000585847873220739" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1000585847873220739_youtube" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="987051677045624912" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="987051677045624912_youtube" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="609400404223983664" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="609400404223983664_youtube" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1076954067823251617" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="1076954067823251617_youtube" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="1000585847873220739" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="1000585847873220739_youtube" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="987051677045624912" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="987051677045624912_youtube" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1098,7 +1098,7 @@
     <row r="1">
       <c r="C1" s="0" t="inlineStr">
         <is>
-          <t>1141074520803921970</t>
+          <t>1135594725156601937</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
     <row r="1">
       <c r="C1" s="0" t="inlineStr">
         <is>
-          <t>1141074520803921970</t>
+          <t>1135594725156601937</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>ga2BNK30Pv0,Hh-Gny6H8fw,Sw3HToXF2uc,4-nLzR9GVu0,ZJAs69NY__k,61pCygus9Ok,D7aLMfQwqCY,-jZW07fxQBs,ovkJ7l7dCKI</t>
+          <t>ga2BNK30Pv0,Hh-Gny6H8fw,Sw3HToXF2uc,4-nLzR9GVu0,ZJAs69NY__k,61pCygus9Ok,D7aLMfQwqCY,-jZW07fxQBs,ovkJ7l7dCKI,5ywARf7L35U</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>None,kLYOmpR-WTs</t>
+          <t>None,kLYOmpR-WTs,YGXF14e3XS4</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>mvLCbwzf7Fw,SizDUmbnWNk,XA8SQ49eULc,2fbuxe_K0NI,OJMHrnZUMTE,wjCANhQFs2k,J8dvBe4rGz0,jcynQNgVGlA,T-gfBgxFZX8,GraWAA-5lGA,7tmWUCDgEJk,XU46ItenHuI</t>
+          <t>mvLCbwzf7Fw,SizDUmbnWNk,XA8SQ49eULc,2fbuxe_K0NI,OJMHrnZUMTE,wjCANhQFs2k,J8dvBe4rGz0,jcynQNgVGlA,T-gfBgxFZX8,GraWAA-5lGA,7tmWUCDgEJk,XU46ItenHuI,HEE4gtFvA-E,oCFvnaYW0qI,pHYMlt8j4yA,0Y5fYqlkclI,LMW9zpzQdEw,VSy_q-fi7i0,_TSV8mI0PFw,LXv4w2q3SnI,FKBBJbwQOms,Wza0o6ptS-A,YGXF14e3XS4,LLecLw2kSlQ,QWOMNNR4Z5g,HJMT2vA3WYo,GAAhG5c86RA,lBvNe5YF-yE,sBF0UbN3TxQ</t>
         </is>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>vppYemSrDfk,iQ5u1GMOGc8,5MMWKgVbEgk,3Q2LZ-YJhp0</t>
+          <t>vppYemSrDfk,iQ5u1GMOGc8,5MMWKgVbEgk,3Q2LZ-YJhp0,6n0hbcD0ooU</t>
         </is>
       </c>
     </row>
